--- a/Code/Results/Cases/Case_2_94/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_94/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.36766817078344</v>
+        <v>17.47311853170041</v>
       </c>
       <c r="C2">
-        <v>12.83815871091679</v>
+        <v>13.31162467959333</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.13871319542208</v>
+        <v>17.04237244971407</v>
       </c>
       <c r="F2">
-        <v>23.30772616985383</v>
+        <v>34.80501544714441</v>
       </c>
       <c r="G2">
-        <v>17.27742376574171</v>
+        <v>25.56536607635957</v>
       </c>
       <c r="H2">
-        <v>7.629207498054555</v>
+        <v>13.58846655459367</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.099724859140204</v>
+        <v>7.312450490235189</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.610625998805286</v>
+        <v>13.02084353093219</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.86340554683126</v>
+        <v>20.23940658146295</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.74535329978803</v>
+        <v>16.79091540051647</v>
       </c>
       <c r="C3">
-        <v>12.50813807301886</v>
+        <v>13.21924130691981</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.10930282151241</v>
+        <v>17.08408044848404</v>
       </c>
       <c r="F3">
-        <v>22.94322597097839</v>
+        <v>34.90122112622637</v>
       </c>
       <c r="G3">
-        <v>17.14887496551806</v>
+        <v>25.73530495884855</v>
       </c>
       <c r="H3">
-        <v>7.751007604641162</v>
+        <v>13.65600376351749</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.059563834498602</v>
+        <v>7.306307012933496</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.242882213644583</v>
+        <v>12.96410139598513</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.9977951996202</v>
+        <v>20.3605485412556</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.68940117164744</v>
+        <v>16.35764425658505</v>
       </c>
       <c r="C4">
-        <v>12.30376682873512</v>
+        <v>13.16340286502873</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.09730764330171</v>
+        <v>17.11237135847293</v>
       </c>
       <c r="F4">
-        <v>22.74283401876719</v>
+        <v>34.97011349312481</v>
       </c>
       <c r="G4">
-        <v>17.10894654544731</v>
+        <v>25.85105282481153</v>
       </c>
       <c r="H4">
-        <v>7.832447451327019</v>
+        <v>13.70016724255202</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.035225539209256</v>
+        <v>7.302780660146101</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.012211345610899</v>
+        <v>12.93054245260712</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.09713798470363</v>
+        <v>20.44051829783908</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.24396510535181</v>
+        <v>16.1776914204773</v>
       </c>
       <c r="C5">
-        <v>12.2201401363292</v>
+        <v>13.14088763902067</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.09391105005948</v>
+        <v>17.12457449623178</v>
       </c>
       <c r="F5">
-        <v>22.66699858867171</v>
+        <v>35.00064937583375</v>
       </c>
       <c r="G5">
-        <v>17.10203657219726</v>
+        <v>25.90106681888133</v>
       </c>
       <c r="H5">
-        <v>7.867236073245586</v>
+        <v>13.71884200454054</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.025391686956991</v>
+        <v>7.301406028235746</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.917110909384323</v>
+        <v>12.91719759864023</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.14160892996671</v>
+        <v>20.4745083674243</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.16908490480045</v>
+        <v>16.14761277768697</v>
       </c>
       <c r="C6">
-        <v>12.20623605473397</v>
+        <v>13.13716394507194</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.09343613944707</v>
+        <v>17.12664154541883</v>
       </c>
       <c r="F6">
-        <v>22.65475577727795</v>
+        <v>35.00586826681618</v>
       </c>
       <c r="G6">
-        <v>17.10144061826743</v>
+        <v>25.90954283550191</v>
       </c>
       <c r="H6">
-        <v>7.873107414648425</v>
+        <v>13.72198387215628</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.023763971261063</v>
+        <v>7.301181556480009</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.901257051356799</v>
+        <v>12.91500191232572</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.14922724475985</v>
+        <v>20.48023695546519</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.68345521630491</v>
+        <v>16.35523075901868</v>
       </c>
       <c r="C7">
-        <v>12.30264027465466</v>
+        <v>13.16309822562749</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.09725584116657</v>
+        <v>17.11253320388836</v>
       </c>
       <c r="F7">
-        <v>22.74178778549886</v>
+        <v>34.97051535461701</v>
       </c>
       <c r="G7">
-        <v>17.10881607628971</v>
+        <v>25.85171583779434</v>
       </c>
       <c r="H7">
-        <v>7.832910230373215</v>
+        <v>13.70041635256206</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.035092570870252</v>
+        <v>7.302761868021694</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.010933066194845</v>
+        <v>12.93036112922212</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.09772190230264</v>
+        <v>20.44097102869805</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.82066638592981</v>
+        <v>17.24101153949723</v>
       </c>
       <c r="C8">
-        <v>12.72478220409145</v>
+        <v>13.27959729824658</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.12729472539852</v>
+        <v>17.05619668988079</v>
       </c>
       <c r="F8">
-        <v>23.17715759877789</v>
+        <v>34.83614402673771</v>
       </c>
       <c r="G8">
-        <v>17.22475325255306</v>
+        <v>25.62158080736151</v>
       </c>
       <c r="H8">
-        <v>7.669777931111951</v>
+        <v>13.61119396844592</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.085812907081333</v>
+        <v>7.31028156282724</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.484910675377938</v>
+        <v>13.0010182288</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.90610120176067</v>
+        <v>20.28001444406581</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.54058433456106</v>
+        <v>18.85509135471586</v>
       </c>
       <c r="C9">
-        <v>13.53504618355367</v>
+        <v>13.51432771559465</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.23571106055275</v>
+        <v>16.96700333022249</v>
       </c>
       <c r="F9">
-        <v>24.21827668740191</v>
+        <v>34.65090450485559</v>
       </c>
       <c r="G9">
-        <v>17.77848153629876</v>
+        <v>25.26174710089376</v>
       </c>
       <c r="H9">
-        <v>7.406228816764717</v>
+        <v>13.45761483168635</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.187665882708278</v>
+        <v>7.326952389798111</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.37090480203255</v>
+        <v>13.14934993433002</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.67520613274179</v>
+        <v>20.00887295182164</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.99167634244833</v>
+        <v>19.95605654745167</v>
       </c>
       <c r="C10">
-        <v>14.11509290062994</v>
+        <v>13.68959453591172</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.34736306356956</v>
+        <v>16.91444821501977</v>
       </c>
       <c r="F10">
-        <v>25.09819517294306</v>
+        <v>34.56292916188235</v>
       </c>
       <c r="G10">
-        <v>18.40249343034053</v>
+        <v>25.0544341957227</v>
       </c>
       <c r="H10">
-        <v>7.25237486254509</v>
+        <v>13.35781642410554</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.26375289920361</v>
+        <v>7.340340385426722</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.98990592039171</v>
+        <v>13.26374603437049</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>11.60995441182936</v>
+        <v>19.83700418889709</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.04671191109728</v>
+        <v>20.43681300704435</v>
       </c>
       <c r="C11">
-        <v>14.37484379986449</v>
+        <v>13.76971916511484</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.40546157680487</v>
+        <v>16.89335639203037</v>
       </c>
       <c r="F11">
-        <v>25.52330294892686</v>
+        <v>34.53342706078764</v>
       </c>
       <c r="G11">
-        <v>18.73598950805074</v>
+        <v>24.97278088905885</v>
       </c>
       <c r="H11">
-        <v>7.192359893129156</v>
+        <v>13.31524667421598</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.298597716049009</v>
+        <v>7.346671160167487</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.26368624609479</v>
+        <v>13.31684293051137</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.60647318095196</v>
+        <v>19.76480050738592</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.43770054813634</v>
+        <v>20.61586203034458</v>
       </c>
       <c r="C12">
-        <v>14.47255487755985</v>
+        <v>13.80009849396161</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.42853969590443</v>
+        <v>16.8857742506159</v>
       </c>
       <c r="F12">
-        <v>25.68781988895974</v>
+        <v>34.52377233109139</v>
       </c>
       <c r="G12">
-        <v>18.869521407812</v>
+        <v>24.94370197737458</v>
       </c>
       <c r="H12">
-        <v>7.171191476199907</v>
+        <v>13.29953362571854</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.31182245723094</v>
+        <v>7.349102382199579</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.36617938430718</v>
+        <v>13.33709077104165</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.60921353361922</v>
+        <v>19.73832297131375</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.35387200719193</v>
+        <v>20.57743584743106</v>
       </c>
       <c r="C13">
-        <v>14.45154085999033</v>
+        <v>13.79355437819137</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.42352107813949</v>
+        <v>16.88738919457668</v>
       </c>
       <c r="F13">
-        <v>25.65223144785448</v>
+        <v>34.52578411478522</v>
       </c>
       <c r="G13">
-        <v>18.84043965536794</v>
+        <v>24.9498824045014</v>
       </c>
       <c r="H13">
-        <v>7.175679109003886</v>
+        <v>13.30289959547103</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.308973005587432</v>
+        <v>7.348577278659666</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.3441590232181</v>
+        <v>13.3327239317189</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.60843826282493</v>
+        <v>19.74398686464479</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.07904919277179</v>
+        <v>20.45160426711607</v>
       </c>
       <c r="C14">
-        <v>14.38289590656046</v>
+        <v>13.77221783994189</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.40733848521679</v>
+        <v>16.8927244907667</v>
       </c>
       <c r="F14">
-        <v>25.53676715789632</v>
+        <v>34.5326023330835</v>
       </c>
       <c r="G14">
-        <v>18.74682966967913</v>
+        <v>24.97035152248722</v>
       </c>
       <c r="H14">
-        <v>7.190586387639042</v>
+        <v>13.31394578923054</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.299685147404174</v>
+        <v>7.34687050295572</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.2721423962087</v>
+        <v>13.31850596570488</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.6066156416398</v>
+        <v>19.76260483419164</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.90960422197695</v>
+        <v>20.37413455754316</v>
       </c>
       <c r="C15">
-        <v>14.34076249297635</v>
+        <v>13.75915296560683</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.39756726792944</v>
+        <v>16.89604523853712</v>
       </c>
       <c r="F15">
-        <v>25.46650162034924</v>
+        <v>34.53697637622346</v>
       </c>
       <c r="G15">
-        <v>18.69043642357288</v>
+        <v>24.98312988979299</v>
       </c>
       <c r="H15">
-        <v>7.199924256032829</v>
+        <v>13.32076494211693</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.293999836081711</v>
+        <v>7.34582944700328</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.22787470238077</v>
+        <v>13.30981511302775</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.60603633923249</v>
+        <v>19.77412158656653</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.9215283676306</v>
+        <v>19.924223673593</v>
       </c>
       <c r="C16">
-        <v>14.09802952367804</v>
+        <v>13.68436453134158</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.34371554382637</v>
+        <v>16.91588327432901</v>
       </c>
       <c r="F16">
-        <v>25.07091035945144</v>
+        <v>34.56506925919498</v>
       </c>
       <c r="G16">
-        <v>18.38170793419777</v>
+        <v>25.06002694304818</v>
       </c>
       <c r="H16">
-        <v>7.256508035502575</v>
+        <v>13.36065541654692</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.261480070054712</v>
+        <v>7.339931435375373</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.97185134947403</v>
+        <v>13.26029638281178</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.61073411889901</v>
+        <v>19.84184358864076</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.3000801350166</v>
+        <v>19.64298760261229</v>
       </c>
       <c r="C17">
-        <v>13.94802213588536</v>
+        <v>13.63857192078421</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.31257027217463</v>
+        <v>16.92877444720799</v>
       </c>
       <c r="F17">
-        <v>24.83456613258604</v>
+        <v>34.58500085610193</v>
       </c>
       <c r="G17">
-        <v>18.20512048156462</v>
+        <v>25.11045755625266</v>
       </c>
       <c r="H17">
-        <v>7.293859856228807</v>
+        <v>13.38585177503349</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.241587138382043</v>
+        <v>7.336374309472149</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.81274435586226</v>
+        <v>13.23018143574018</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.62053503610087</v>
+        <v>19.88492369725932</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.93698826472263</v>
+        <v>19.47934398330528</v>
       </c>
       <c r="C18">
-        <v>13.86135755642404</v>
+        <v>13.61227152096919</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.29534264415696</v>
+        <v>16.93645414683212</v>
       </c>
       <c r="F18">
-        <v>24.70096666286665</v>
+        <v>34.59745480232374</v>
       </c>
       <c r="G18">
-        <v>18.10822118903492</v>
+        <v>25.14065373895271</v>
       </c>
       <c r="H18">
-        <v>7.316274430594256</v>
+        <v>13.40061031230522</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.230167341791956</v>
+        <v>7.33435102456867</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.72049823144041</v>
+        <v>13.2129603197969</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.62862123066761</v>
+        <v>19.91026485644993</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.81307815541703</v>
+        <v>19.4236172819962</v>
       </c>
       <c r="C19">
-        <v>13.83195034510087</v>
+        <v>13.60337381210397</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.28962670492246</v>
+        <v>16.93909988171019</v>
       </c>
       <c r="F19">
-        <v>24.65613486813541</v>
+        <v>34.6018413432566</v>
       </c>
       <c r="G19">
-        <v>18.07621040085609</v>
+        <v>25.15108132864714</v>
       </c>
       <c r="H19">
-        <v>7.324019875520305</v>
+        <v>13.40565301863202</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.226304702783864</v>
+        <v>7.333669891163513</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.68914154053544</v>
+        <v>13.20714708408815</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.6317707694662</v>
+        <v>19.91894143296729</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.36681857222594</v>
+        <v>19.67312154875993</v>
       </c>
       <c r="C20">
-        <v>13.96403090495576</v>
+        <v>13.64344279570521</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.31581451182754</v>
+        <v>16.92737472945782</v>
       </c>
       <c r="F20">
-        <v>24.85948346788437</v>
+        <v>34.58277662515408</v>
       </c>
       <c r="G20">
-        <v>18.22343430787267</v>
+        <v>25.10496582907671</v>
       </c>
       <c r="H20">
-        <v>7.289786492426491</v>
+        <v>13.38314202028718</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.243702515465923</v>
+        <v>7.336750629272879</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.82975778791174</v>
+        <v>13.23337693053875</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>11.61923613371126</v>
+        <v>19.88027948488014</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.16000206137716</v>
+        <v>20.48864639396297</v>
       </c>
       <c r="C21">
-        <v>14.40307669329625</v>
+        <v>13.77848402109677</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.41206225658484</v>
+        <v>16.89114639727375</v>
       </c>
       <c r="F21">
-        <v>25.57058608795187</v>
+        <v>34.53055845234891</v>
       </c>
       <c r="G21">
-        <v>18.77412802532414</v>
+        <v>24.96428910072314</v>
       </c>
       <c r="H21">
-        <v>7.18616444172061</v>
+        <v>13.3106902000915</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.302412437164963</v>
+        <v>7.347370910010263</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.29332790659636</v>
+        <v>13.32267838253709</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.60703854563349</v>
+        <v>19.75711278880781</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.28227523002396</v>
+        <v>21.00409278599244</v>
       </c>
       <c r="C22">
-        <v>14.68620226526812</v>
+        <v>13.86695328439896</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.48125756302893</v>
+        <v>16.86982895299083</v>
       </c>
       <c r="F22">
-        <v>26.05593614740968</v>
+        <v>34.50527499540379</v>
       </c>
       <c r="G22">
-        <v>19.17627256349689</v>
+        <v>24.88309154521794</v>
       </c>
       <c r="H22">
-        <v>7.127586752046541</v>
+        <v>13.26571237477678</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.340954667125509</v>
+        <v>7.354509114817698</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.58939124997488</v>
+        <v>13.38185987824959</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.62285414738974</v>
+        <v>19.68165692476382</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.6878102817155</v>
+        <v>20.73062887594037</v>
       </c>
       <c r="C23">
-        <v>14.53545955807975</v>
+        <v>13.81972240581521</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.44374253473529</v>
+        <v>16.88099056986901</v>
       </c>
       <c r="F23">
-        <v>25.79502238274131</v>
+        <v>34.51795874683955</v>
       </c>
       <c r="G23">
-        <v>18.95775543979855</v>
+        <v>24.92543823527505</v>
       </c>
       <c r="H23">
-        <v>7.157970551048916</v>
+        <v>13.28950056509256</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.32036939654551</v>
+        <v>7.350681504447587</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.43202526669064</v>
+        <v>13.35020241047426</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.61214185181877</v>
+        <v>19.72146641934022</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.33666423807949</v>
+        <v>19.65950407917194</v>
       </c>
       <c r="C24">
-        <v>13.95679465447034</v>
+        <v>13.64124058953185</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.31434568066134</v>
+        <v>16.92800670583407</v>
       </c>
       <c r="F24">
-        <v>24.84821124277863</v>
+        <v>34.58377910094662</v>
       </c>
       <c r="G24">
-        <v>18.21514023560763</v>
+        <v>25.10744489345534</v>
       </c>
       <c r="H24">
-        <v>7.291625139952015</v>
+        <v>13.38436625061798</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.242746100520888</v>
+        <v>7.336580427270937</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.82206841963452</v>
+        <v>13.23193195880616</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>11.61981575367165</v>
+        <v>19.88237734616289</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.58415062214615</v>
+        <v>18.43271693075362</v>
       </c>
       <c r="C25">
-        <v>13.31822508414285</v>
+        <v>13.45025916186201</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.20088752260442</v>
+        <v>16.98885379698742</v>
       </c>
       <c r="F25">
-        <v>23.91641576237828</v>
+        <v>34.69259281610578</v>
       </c>
       <c r="G25">
-        <v>17.59160097063965</v>
+        <v>25.34916434010874</v>
       </c>
       <c r="H25">
-        <v>7.470963953736584</v>
+        <v>13.49687281801639</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.159876913733807</v>
+        <v>7.322239834744662</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.13648687030655</v>
+        <v>13.10823065631968</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.72052533536133</v>
+        <v>20.07743869543503</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_94/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_94/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.47311853170041</v>
+        <v>24.36766817078345</v>
       </c>
       <c r="C2">
-        <v>13.31162467959333</v>
+        <v>12.83815871091669</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>17.04237244971407</v>
+        <v>10.13871319542193</v>
       </c>
       <c r="F2">
-        <v>34.80501544714441</v>
+        <v>23.30772616985373</v>
       </c>
       <c r="G2">
-        <v>25.56536607635957</v>
+        <v>17.27742376574152</v>
       </c>
       <c r="H2">
-        <v>13.58846655459367</v>
+        <v>7.629207498054615</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.312450490235189</v>
+        <v>5.099724859140168</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.02084353093219</v>
+        <v>9.610625998805247</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.23940658146295</v>
+        <v>11.86340554683126</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.79091540051647</v>
+        <v>22.74535329978801</v>
       </c>
       <c r="C3">
-        <v>13.21924130691981</v>
+        <v>12.50813807301883</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17.08408044848404</v>
+        <v>10.10930282151242</v>
       </c>
       <c r="F3">
-        <v>34.90122112622637</v>
+        <v>22.94322597097855</v>
       </c>
       <c r="G3">
-        <v>25.73530495884855</v>
+        <v>17.14887496551828</v>
       </c>
       <c r="H3">
-        <v>13.65600376351749</v>
+        <v>7.751007604641234</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.306307012933496</v>
+        <v>5.059563834498595</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.96410139598513</v>
+        <v>9.242882213644558</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>20.3605485412556</v>
+        <v>11.99779519962035</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.35764425658505</v>
+        <v>21.68940117164741</v>
       </c>
       <c r="C4">
-        <v>13.16340286502873</v>
+        <v>12.30376682873514</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>17.11237135847293</v>
+        <v>10.09730764330171</v>
       </c>
       <c r="F4">
-        <v>34.97011349312481</v>
+        <v>22.74283401876718</v>
       </c>
       <c r="G4">
-        <v>25.85105282481153</v>
+        <v>17.1089465454471</v>
       </c>
       <c r="H4">
-        <v>13.70016724255202</v>
+        <v>7.832447451327193</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.302780660146101</v>
+        <v>5.035225539209259</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.93054245260712</v>
+        <v>9.012211345610929</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.44051829783908</v>
+        <v>12.09713798470361</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.1776914204773</v>
+        <v>21.24396510535184</v>
       </c>
       <c r="C5">
-        <v>13.14088763902067</v>
+        <v>12.22014013632889</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17.12457449623178</v>
+        <v>10.09391105005941</v>
       </c>
       <c r="F5">
-        <v>35.00064937583375</v>
+        <v>22.66699858867169</v>
       </c>
       <c r="G5">
-        <v>25.90106681888133</v>
+        <v>17.10203657219715</v>
       </c>
       <c r="H5">
-        <v>13.71884200454054</v>
+        <v>7.867236073245576</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.301406028235746</v>
+        <v>5.025391686956934</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.91719759864023</v>
+        <v>8.917110909384284</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20.4745083674243</v>
+        <v>12.14160892996665</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.14761277768697</v>
+        <v>21.16908490480047</v>
       </c>
       <c r="C6">
-        <v>13.13716394507194</v>
+        <v>12.20623605473376</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17.12664154541883</v>
+        <v>10.09343613944701</v>
       </c>
       <c r="F6">
-        <v>35.00586826681618</v>
+        <v>22.65475577727795</v>
       </c>
       <c r="G6">
-        <v>25.90954283550191</v>
+        <v>17.10144061826748</v>
       </c>
       <c r="H6">
-        <v>13.72198387215628</v>
+        <v>7.873107414648427</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.301181556480009</v>
+        <v>5.023763971261066</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.91500191232572</v>
+        <v>8.901257051356835</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>20.48023695546519</v>
+        <v>12.14922724475987</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.35523075901868</v>
+        <v>21.68345521630489</v>
       </c>
       <c r="C7">
-        <v>13.16309822562749</v>
+        <v>12.30264027465488</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>17.11253320388836</v>
+        <v>10.09725584116651</v>
       </c>
       <c r="F7">
-        <v>34.97051535461701</v>
+        <v>22.74178778549878</v>
       </c>
       <c r="G7">
-        <v>25.85171583779434</v>
+        <v>17.1088160762895</v>
       </c>
       <c r="H7">
-        <v>13.70041635256206</v>
+        <v>7.832910230373201</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.302761868021694</v>
+        <v>5.035092570870199</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.93036112922212</v>
+        <v>9.010933066194728</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.44097102869805</v>
+        <v>12.09772190230256</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.24101153949723</v>
+        <v>23.8206663859298</v>
       </c>
       <c r="C8">
-        <v>13.27959729824658</v>
+        <v>12.72478220409143</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>17.05619668988079</v>
+        <v>10.1272947253984</v>
       </c>
       <c r="F8">
-        <v>34.83614402673771</v>
+        <v>23.17715759877792</v>
       </c>
       <c r="G8">
-        <v>25.62158080736151</v>
+        <v>17.22475325255315</v>
       </c>
       <c r="H8">
-        <v>13.61119396844592</v>
+        <v>7.669777931111909</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.31028156282724</v>
+        <v>5.08581290708123</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.0010182288</v>
+        <v>9.484910675377899</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.28001444406581</v>
+        <v>11.90610120176068</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.85509135471586</v>
+        <v>27.54058433456104</v>
       </c>
       <c r="C9">
-        <v>13.51432771559465</v>
+        <v>13.53504618355373</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.96700333022249</v>
+        <v>10.23571106055276</v>
       </c>
       <c r="F9">
-        <v>34.65090450485559</v>
+        <v>24.21827668740208</v>
       </c>
       <c r="G9">
-        <v>25.26174710089376</v>
+        <v>17.77848153629891</v>
       </c>
       <c r="H9">
-        <v>13.45761483168635</v>
+        <v>7.406228816764764</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.326952389798111</v>
+        <v>5.18766588270825</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.14934993433002</v>
+        <v>10.37090480203259</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.00887295182164</v>
+        <v>11.67520613274193</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.95605654745167</v>
+        <v>29.99167634244833</v>
       </c>
       <c r="C10">
-        <v>13.68959453591172</v>
+        <v>14.11509290062996</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.91444821501977</v>
+        <v>10.34736306356959</v>
       </c>
       <c r="F10">
-        <v>34.56292916188235</v>
+        <v>25.09819517294306</v>
       </c>
       <c r="G10">
-        <v>25.0544341957227</v>
+        <v>18.40249343034056</v>
       </c>
       <c r="H10">
-        <v>13.35781642410554</v>
+        <v>7.252374862545086</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.340340385426722</v>
+        <v>5.263752899203614</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>13.26374603437049</v>
+        <v>10.98990592039172</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.83700418889709</v>
+        <v>11.60995441182935</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.43681300704435</v>
+        <v>31.04671191109725</v>
       </c>
       <c r="C11">
-        <v>13.76971916511484</v>
+        <v>14.3748437998645</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.89335639203037</v>
+        <v>10.40546157680488</v>
       </c>
       <c r="F11">
-        <v>34.53342706078764</v>
+        <v>25.52330294892691</v>
       </c>
       <c r="G11">
-        <v>24.97278088905885</v>
+        <v>18.73598950805081</v>
       </c>
       <c r="H11">
-        <v>13.31524667421598</v>
+        <v>7.192359893129156</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.346671160167487</v>
+        <v>5.29859771604894</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.31684293051137</v>
+        <v>11.26368624609479</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.76480050738592</v>
+        <v>11.606473180952</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.61586203034458</v>
+        <v>31.43770054813637</v>
       </c>
       <c r="C12">
-        <v>13.80009849396161</v>
+        <v>14.47255487755972</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.8857742506159</v>
+        <v>10.42853969590438</v>
       </c>
       <c r="F12">
-        <v>34.52377233109139</v>
+        <v>25.68781988895971</v>
       </c>
       <c r="G12">
-        <v>24.94370197737458</v>
+        <v>18.86952140781196</v>
       </c>
       <c r="H12">
-        <v>13.29953362571854</v>
+        <v>7.171191476199919</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.349102382199579</v>
+        <v>5.311822457230909</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>13.33709077104165</v>
+        <v>11.3661793843072</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.73832297131375</v>
+        <v>11.60921353361918</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.57743584743106</v>
+        <v>31.35387200719194</v>
       </c>
       <c r="C13">
-        <v>13.79355437819137</v>
+        <v>14.4515408599903</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.88738919457668</v>
+        <v>10.42352107813948</v>
       </c>
       <c r="F13">
-        <v>34.52578411478522</v>
+        <v>25.65223144785442</v>
       </c>
       <c r="G13">
-        <v>24.9498824045014</v>
+        <v>18.84043965536776</v>
       </c>
       <c r="H13">
-        <v>13.30289959547103</v>
+        <v>7.175679109003874</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.348577278659666</v>
+        <v>5.308973005587373</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.3327239317189</v>
+        <v>11.34415902321811</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.74398686464479</v>
+        <v>11.60843826282486</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.45160426711607</v>
+        <v>31.07904919277181</v>
       </c>
       <c r="C14">
-        <v>13.77221783994189</v>
+        <v>14.38289590656049</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.8927244907667</v>
+        <v>10.40733848521678</v>
       </c>
       <c r="F14">
-        <v>34.5326023330835</v>
+        <v>25.53676715789627</v>
       </c>
       <c r="G14">
-        <v>24.97035152248722</v>
+        <v>18.74682966967912</v>
       </c>
       <c r="H14">
-        <v>13.31394578923054</v>
+        <v>7.190586387638992</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.34687050295572</v>
+        <v>5.299685147404174</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.31850596570488</v>
+        <v>11.2721423962087</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.76260483419164</v>
+        <v>11.60661564163975</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.37413455754316</v>
+        <v>30.90960422197688</v>
       </c>
       <c r="C15">
-        <v>13.75915296560683</v>
+        <v>14.34076249297643</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.89604523853712</v>
+        <v>10.39756726792935</v>
       </c>
       <c r="F15">
-        <v>34.53697637622346</v>
+        <v>25.4665016203493</v>
       </c>
       <c r="G15">
-        <v>24.98312988979299</v>
+        <v>18.690436423573</v>
       </c>
       <c r="H15">
-        <v>13.32076494211693</v>
+        <v>7.199924256032848</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.34582944700328</v>
+        <v>5.293999836081791</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>13.30981511302775</v>
+        <v>11.22787470238076</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.77412158656653</v>
+        <v>11.60603633923258</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.924223673593</v>
+        <v>29.92152836763066</v>
       </c>
       <c r="C16">
-        <v>13.68436453134158</v>
+        <v>14.09802952367797</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>16.91588327432901</v>
+        <v>10.34371554382641</v>
       </c>
       <c r="F16">
-        <v>34.56506925919498</v>
+        <v>25.07091035945134</v>
       </c>
       <c r="G16">
-        <v>25.06002694304818</v>
+        <v>18.38170793419764</v>
       </c>
       <c r="H16">
-        <v>13.36065541654692</v>
+        <v>7.256508035502522</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.339931435375373</v>
+        <v>5.261480070054655</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>13.26029638281178</v>
+        <v>10.97185134947406</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.84184358864076</v>
+        <v>11.61073411889887</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.64298760261229</v>
+        <v>29.30008013501659</v>
       </c>
       <c r="C17">
-        <v>13.63857192078421</v>
+        <v>13.94802213588507</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.92877444720799</v>
+        <v>10.31257027217453</v>
       </c>
       <c r="F17">
-        <v>34.58500085610193</v>
+        <v>24.83456613258606</v>
       </c>
       <c r="G17">
-        <v>25.11045755625266</v>
+        <v>18.20512048156481</v>
       </c>
       <c r="H17">
-        <v>13.38585177503349</v>
+        <v>7.293859856228814</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.336374309472149</v>
+        <v>5.241587138382036</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>13.23018143574018</v>
+        <v>10.81274435586223</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.88492369725932</v>
+        <v>11.62053503610098</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.47934398330528</v>
+        <v>28.9369882647227</v>
       </c>
       <c r="C18">
-        <v>13.61227152096919</v>
+        <v>13.86135755642371</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.93645414683212</v>
+        <v>10.29534264415696</v>
       </c>
       <c r="F18">
-        <v>34.59745480232374</v>
+        <v>24.70096666286655</v>
       </c>
       <c r="G18">
-        <v>25.14065373895271</v>
+        <v>18.10822118903475</v>
       </c>
       <c r="H18">
-        <v>13.40061031230522</v>
+        <v>7.316274430594097</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.33435102456867</v>
+        <v>5.230167341791897</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>13.2129603197969</v>
+        <v>10.72049823144044</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.91026485644993</v>
+        <v>11.62862123066744</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.4236172819962</v>
+        <v>28.81307815541708</v>
       </c>
       <c r="C19">
-        <v>13.60337381210397</v>
+        <v>13.83195034510071</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.93909988171019</v>
+        <v>10.28962670492245</v>
       </c>
       <c r="F19">
-        <v>34.6018413432566</v>
+        <v>24.65613486813546</v>
       </c>
       <c r="G19">
-        <v>25.15108132864714</v>
+        <v>18.07621040085617</v>
       </c>
       <c r="H19">
-        <v>13.40565301863202</v>
+        <v>7.324019875520345</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.333669891163513</v>
+        <v>5.226304702783868</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>13.20714708408815</v>
+        <v>10.68914154053549</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.91894143296729</v>
+        <v>11.63177076946625</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.67312154875993</v>
+        <v>29.36681857222588</v>
       </c>
       <c r="C20">
-        <v>13.64344279570521</v>
+        <v>13.96403090495575</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.92737472945782</v>
+        <v>10.3158145118276</v>
       </c>
       <c r="F20">
-        <v>34.58277662515408</v>
+        <v>24.85948346788456</v>
       </c>
       <c r="G20">
-        <v>25.10496582907671</v>
+        <v>18.22343430787296</v>
       </c>
       <c r="H20">
-        <v>13.38314202028718</v>
+        <v>7.289786492426539</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.336750629272879</v>
+        <v>5.243702515465879</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>13.23337693053875</v>
+        <v>10.82975778791177</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.88027948488014</v>
+        <v>11.61923613371147</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.48864639396297</v>
+        <v>31.16000206137713</v>
       </c>
       <c r="C21">
-        <v>13.77848402109677</v>
+        <v>14.40307669329631</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>16.89114639727375</v>
+        <v>10.41206225658484</v>
       </c>
       <c r="F21">
-        <v>34.53055845234891</v>
+        <v>25.57058608795194</v>
       </c>
       <c r="G21">
-        <v>24.96428910072314</v>
+        <v>18.77412802532425</v>
       </c>
       <c r="H21">
-        <v>13.3106902000915</v>
+        <v>7.186164441720678</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.347370910010263</v>
+        <v>5.302412437164984</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.32267838253709</v>
+        <v>11.29332790659634</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.75711278880781</v>
+        <v>11.60703854563357</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.00409278599244</v>
+        <v>32.28227523002395</v>
       </c>
       <c r="C22">
-        <v>13.86695328439896</v>
+        <v>14.68620226526813</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.86982895299083</v>
+        <v>10.48125756302888</v>
       </c>
       <c r="F22">
-        <v>34.50527499540379</v>
+        <v>26.05593614740974</v>
       </c>
       <c r="G22">
-        <v>24.88309154521794</v>
+        <v>19.17627256349692</v>
       </c>
       <c r="H22">
-        <v>13.26571237477678</v>
+        <v>7.127586752046596</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.354509114817698</v>
+        <v>5.340954667125479</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.38185987824959</v>
+        <v>11.58939124997486</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.68165692476382</v>
+        <v>11.6228541473898</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.73062887594037</v>
+        <v>31.68781028171551</v>
       </c>
       <c r="C23">
-        <v>13.81972240581521</v>
+        <v>14.53545955807975</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.88099056986901</v>
+        <v>10.44374253473533</v>
       </c>
       <c r="F23">
-        <v>34.51795874683955</v>
+        <v>25.79502238274132</v>
       </c>
       <c r="G23">
-        <v>24.92543823527505</v>
+        <v>18.95775543979848</v>
       </c>
       <c r="H23">
-        <v>13.28950056509256</v>
+        <v>7.157970551048972</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.350681504447587</v>
+        <v>5.320369396545514</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13.35020241047426</v>
+        <v>11.43202526669064</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.72146641934022</v>
+        <v>11.61214185181872</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.65950407917194</v>
+        <v>29.33666423807946</v>
       </c>
       <c r="C24">
-        <v>13.64124058953185</v>
+        <v>13.9567946544704</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.92800670583407</v>
+        <v>10.31434568066136</v>
       </c>
       <c r="F24">
-        <v>34.58377910094662</v>
+        <v>24.84821124277865</v>
       </c>
       <c r="G24">
-        <v>25.10744489345534</v>
+        <v>18.21514023560771</v>
       </c>
       <c r="H24">
-        <v>13.38436625061798</v>
+        <v>7.291625139952027</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.336580427270937</v>
+        <v>5.242746100520977</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>13.23193195880616</v>
+        <v>10.82206841963451</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.88237734616289</v>
+        <v>11.61981575367169</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.43271693075362</v>
+        <v>26.58415062214613</v>
       </c>
       <c r="C25">
-        <v>13.45025916186201</v>
+        <v>13.31822508414255</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.98885379698742</v>
+        <v>10.20088752260437</v>
       </c>
       <c r="F25">
-        <v>34.69259281610578</v>
+        <v>23.91641576237837</v>
       </c>
       <c r="G25">
-        <v>25.34916434010874</v>
+        <v>17.59160097063992</v>
       </c>
       <c r="H25">
-        <v>13.49687281801639</v>
+        <v>7.470963953736649</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.322239834744662</v>
+        <v>5.159876913733902</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.10823065631968</v>
+        <v>10.13648687030656</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.07743869543503</v>
+        <v>11.72052533536151</v>
       </c>
     </row>
   </sheetData>
